--- a/data/trans_orig/Q02G_FES-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q02G_FES-Edad-trans_orig.xlsx
@@ -634,19 +634,19 @@
         <v>1</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.14492015610815</v>
+        <v>2.26784229512498</v>
       </c>
       <c r="E5" s="5" t="n">
         <v>2</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.746634734566199</v>
+        <v>1.75719024470563</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>1.497601805850332</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>2.528683216906592</v>
+        <v>2.40941717243215</v>
       </c>
     </row>
     <row r="6">
@@ -660,19 +660,19 @@
         <v>10</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.881528411823698</v>
+        <v>4.906771754080228</v>
       </c>
       <c r="E6" s="5" t="n">
         <v>6</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10.48491339457873</v>
+        <v>10.18837942234912</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.966253126168109</v>
+        <v>8.005729055781721</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>7.023806295676605</v>
+        <v>7.017422763122642</v>
       </c>
     </row>
     <row r="7">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.441520187341597</v>
+        <v>1.626773691864893</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.9714214021857348</v>
+        <v>0.9964010504324128</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.414670002139377</v>
+        <v>1.500862087024573</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.991626855822355</v>
+        <v>1.969818976524334</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.954897683023633</v>
+        <v>1.841398078561273</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>2.144152368235971</v>
+        <v>2.128921753723298</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>5.366472332252493</v>
+        <v>5.599079043823377</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>13.66899295521814</v>
+        <v>12.55675231311491</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>3.569872378735889</v>
+        <v>3.783865045162384</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5.39208411624064</v>
+        <v>5.315396396596916</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>4.505488719840361</v>
+        <v>4.486564114321569</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>6.843910641764551</v>
+        <v>6.550906984563158</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9936881635231519</v>
+        <v>0.9897109377843953</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.262883087116404</v>
+        <v>1.159272463074601</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.693728120937213</v>
+        <v>2.755012978879047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.20028146642151</v>
+        <v>2.201693125882256</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>2.498081696667224</v>
+        <v>2.53460919978352</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>2.156809614345914</v>
+        <v>2.160032530957609</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.486066987845692</v>
+        <v>2.491706277008027</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.399162915433004</v>
+        <v>5.459644771164676</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>4.929527391828763</v>
+        <v>4.895685625853609</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.788825588820332</v>
+        <v>4.88301004222569</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>4.447913819467155</v>
+        <v>4.414965481860319</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>4.345854194303714</v>
+        <v>4.410126920088528</v>
       </c>
     </row>
     <row r="13">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>3.447952998063909</v>
+        <v>3.461058448141709</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>2.136698798324554</v>
+        <v>2.108551964095974</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.439954073790612</v>
+        <v>3.437592954009077</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.876192075503315</v>
+        <v>2.832640166889153</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>3.632982874774892</v>
+        <v>3.594665674050765</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>3.00305346944964</v>
+        <v>2.920323855397867</v>
       </c>
     </row>
     <row r="15">
@@ -903,22 +903,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>7.217095799122447</v>
+        <v>7.584429838691753</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.701152549899036</v>
+        <v>6.425495995901851</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.521581140699833</v>
+        <v>5.7051993181203</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>5.802328093249137</v>
+        <v>5.697351375232564</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>5.544963163401384</v>
+        <v>5.577500669181011</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>5.418392216452671</v>
+        <v>5.348052916248557</v>
       </c>
     </row>
     <row r="16">
@@ -959,22 +959,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.6797907359643348</v>
+        <v>0.6753787736935105</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>2.432393718391499</v>
+        <v>2.5936693489098</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2.36171397429835</v>
+        <v>2.45360034929555</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3.429192334918723</v>
+        <v>3.475136706022897</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>2.196533367431611</v>
+        <v>2.168895713579157</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>3.662187827091579</v>
+        <v>3.643101007820757</v>
       </c>
     </row>
     <row r="18">
@@ -988,19 +988,19 @@
         <v>2</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.267799763783348</v>
+        <v>9.511715497125762</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.897105885627157</v>
+        <v>6.183403813592826</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.42359670407974</v>
+        <v>8.574594460298176</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>5.115038775810659</v>
+        <v>4.990664930626723</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.241574276361084</v>
+        <v>7.423225826106739</v>
       </c>
     </row>
     <row r="19">
@@ -1041,22 +1041,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>2.620202083218247</v>
+        <v>2.602980067364957</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.112956240691793</v>
+        <v>1.293320605299265</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.5627903604300658</v>
+        <v>0.6574080807646647</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>2.069979945758684</v>
+        <v>1.92715984238511</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.688486446212955</v>
+        <v>1.744527859605115</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>2.16800133700854</v>
+        <v>2.186698678332146</v>
       </c>
     </row>
     <row r="21">
@@ -1067,22 +1067,22 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>8.452161909029751</v>
+        <v>8.531861012885729</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>5.36401662328858</v>
+        <v>5.585413810731119</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>3.243314425033311</v>
+        <v>3.401435309747752</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7.18623851927667</v>
+        <v>6.923194573111355</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>4.670360359423626</v>
+        <v>4.735032616007259</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>5.938586545480034</v>
+        <v>6.02178883672457</v>
       </c>
     </row>
     <row r="22">
@@ -1130,13 +1130,13 @@
         <v>2</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.6883233054938968</v>
+        <v>0.8022799142917889</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>1.350234968070303</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9969209896415969</v>
+        <v>1.041813222102821</v>
       </c>
     </row>
     <row r="24">
@@ -1154,13 +1154,13 @@
         <v>7</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.099966654143235</v>
+        <v>4.201011000580304</v>
       </c>
       <c r="G24" s="5" t="n">
         <v>7</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.885318236740425</v>
+        <v>4.024733592881516</v>
       </c>
     </row>
     <row r="25">
@@ -1201,22 +1201,22 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>2.405346317054975</v>
+        <v>2.412773696564222</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>2.795268112285422</v>
+        <v>2.752024052531074</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3.216906898941773</v>
+        <v>3.151655764888295</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3.252274886715525</v>
+        <v>3.358518701654395</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>3.141238230985063</v>
+        <v>3.129933078074449</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>3.399239225618509</v>
+        <v>3.385085688581938</v>
       </c>
     </row>
     <row r="27">
@@ -1227,22 +1227,22 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>4.26645007367126</v>
+        <v>4.172734464791337</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>5.287417829985309</v>
+        <v>5.447516931207236</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4.379588560005196</v>
+        <v>4.396543080993222</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>5.03596582763482</v>
+        <v>5.043968623592161</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>4.201064865147245</v>
+        <v>4.143249202453424</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>4.783503206976203</v>
+        <v>4.816247002834982</v>
       </c>
     </row>
     <row r="28">
